--- a/appendix/f1-macro-mean-difference.xlsx
+++ b/appendix/f1-macro-mean-difference.xlsx
@@ -1,37 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritzlaurer/Dropbox/PhD/Papers/nli/snellius/NLI-experiments/appendix/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2123596B-8D9C-CC45-8502-1884F4036DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Sample size</t>
+  </si>
+  <si>
+    <t>0 (8 datasets)</t>
+  </si>
+  <si>
+    <t>100 (8 datasets)</t>
+  </si>
+  <si>
+    <t>500 (8 datasets)</t>
+  </si>
+  <si>
+    <t>1000 (8 datasets)</t>
+  </si>
+  <si>
+    <t>2500 (8 datasets)</t>
+  </si>
+  <si>
+    <t>5000 (4 datasets)</t>
+  </si>
+  <si>
+    <t>10000 (3 datasets)</t>
+  </si>
+  <si>
+    <t>BERT-base vs. classical-best-tfidf</t>
+  </si>
+  <si>
+    <t>BERT-base vs. classical-best-embeddings</t>
+  </si>
+  <si>
+    <t>BERT-base-nli vs. classical-best-tfidf</t>
+  </si>
+  <si>
+    <t>BERT-base-nli vs. classical-best-embeddings</t>
+  </si>
+  <si>
+    <t>BERT-base-nli vs. BERT-base</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +108,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,199 +432,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Sample size</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>0 (8 datasets)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>100 (8 datasets)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>500 (8 datasets)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>1000 (8 datasets)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2500 (8 datasets)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>5000 (4 datasets)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>10000 (3 datasets)</t>
-        </is>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>BERT-base vs. classical-best-tfidf</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="C2">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.121</v>
+      </c>
+      <c r="E2">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="F2">
+        <v>0.127</v>
+      </c>
+      <c r="G2">
         <v>0.17</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.19</v>
+      <c r="H2">
+        <v>0.186</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I5" si="0">AVERAGE(C2:F2)</f>
+        <v>0.1085</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>BERT-base vs. classical-best-embeddings</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D3">
+        <v>0.104</v>
+      </c>
+      <c r="E3">
+        <v>0.112</v>
+      </c>
+      <c r="F3">
+        <v>0.109</v>
+      </c>
+      <c r="G3">
+        <v>0.109</v>
+      </c>
+      <c r="H3">
+        <v>0.112</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>8.3499999999999991E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.161</v>
+      </c>
+      <c r="D4">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.126</v>
+      </c>
+      <c r="G4">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0.14824999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.122</v>
+      </c>
+      <c r="F5">
+        <v>0.108</v>
+      </c>
+      <c r="G5">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="H5">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0.12325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="C6">
+        <v>0.109</v>
+      </c>
+      <c r="D6">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E6">
         <v>0.01</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>BERT-base-nli vs. classical-best-tfidf</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>BERT-base-nli vs. classical-best-embeddings</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>BERT-base-nli vs. BERT-base</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.02</v>
+      <c r="F6">
+        <v>-1E-3</v>
+      </c>
+      <c r="G6">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="H6">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="I6">
+        <f>AVERAGE(C6:F6)</f>
+        <v>3.9750000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/appendix/f1-macro-mean-difference.xlsx
+++ b/appendix/f1-macro-mean-difference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritzlaurer/Dropbox/PhD/Papers/nli/snellius/NLI-experiments/appendix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2123596B-8D9C-CC45-8502-1884F4036DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BC6FD0-64FC-B749-9C7A-D6C2E88499B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -620,6 +620,12 @@
         <v>3.9750000000000001E-2</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <f>12.3 - 7.2</f>
+        <v>5.1000000000000005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/appendix/f1-macro-mean-difference.xlsx
+++ b/appendix/f1-macro-mean-difference.xlsx
@@ -1,99 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritzlaurer/Dropbox/PhD/Papers/nli/snellius/NLI-experiments/appendix/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BC6FD0-64FC-B749-9C7A-D6C2E88499B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Sample size</t>
-  </si>
-  <si>
-    <t>0 (8 datasets)</t>
-  </si>
-  <si>
-    <t>100 (8 datasets)</t>
-  </si>
-  <si>
-    <t>500 (8 datasets)</t>
-  </si>
-  <si>
-    <t>1000 (8 datasets)</t>
-  </si>
-  <si>
-    <t>2500 (8 datasets)</t>
-  </si>
-  <si>
-    <t>5000 (4 datasets)</t>
-  </si>
-  <si>
-    <t>10000 (3 datasets)</t>
-  </si>
-  <si>
-    <t>BERT-base vs. classical-best-tfidf</t>
-  </si>
-  <si>
-    <t>BERT-base vs. classical-best-embeddings</t>
-  </si>
-  <si>
-    <t>BERT-base-nli vs. classical-best-tfidf</t>
-  </si>
-  <si>
-    <t>BERT-base-nli vs. classical-best-embeddings</t>
-  </si>
-  <si>
-    <t>BERT-base-nli vs. BERT-base</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -108,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -432,198 +420,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sample size</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>0 (8 datasets)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>100 (8 datasets)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>500 (8 datasets)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1000 (8 datasets)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2500 (8 datasets)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>5000 (4 datasets)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>10000 (3 datasets)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>mean (100 to 2500)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>mean all</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>classical-best-embeddings vs. classical-best-tfidf</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+      <c r="C2" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.051</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>BERT-base vs. classical-best-tfidf</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="D2">
-        <v>0.121</v>
-      </c>
-      <c r="E2">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="F2">
-        <v>0.127</v>
-      </c>
-      <c r="G2">
-        <v>0.17</v>
-      </c>
-      <c r="H2">
-        <v>0.186</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I5" si="0">AVERAGE(C2:F2)</f>
-        <v>0.1085</v>
+      <c r="C3" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.123</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>BERT-base vs. classical-best-embeddings</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="D3">
+      <c r="C4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>BERT-base-nli vs. classical-best-tfidf</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.143</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>BERT-base-nli vs. classical-best-embeddings</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.104</v>
       </c>
-      <c r="E3">
-        <v>0.112</v>
-      </c>
-      <c r="F3">
+      <c r="F6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.092</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>BERT-base-nli vs. BERT-base</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="C7" t="n">
         <v>0.109</v>
       </c>
-      <c r="G3">
-        <v>0.109</v>
-      </c>
-      <c r="H3">
-        <v>0.112</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>8.3499999999999991E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="C4">
-        <v>0.161</v>
-      </c>
-      <c r="D4">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="E4">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="F4">
-        <v>0.126</v>
-      </c>
-      <c r="G4">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="H4">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>0.14824999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="C5">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="D5">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="E5">
-        <v>0.122</v>
-      </c>
-      <c r="F5">
-        <v>0.108</v>
-      </c>
-      <c r="G5">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="H5">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>0.12325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="C6">
-        <v>0.109</v>
-      </c>
-      <c r="D6">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="E6">
+      <c r="D7" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.01</v>
       </c>
-      <c r="F6">
-        <v>-1E-3</v>
-      </c>
-      <c r="G6">
-        <v>-2.1000000000000001E-2</v>
-      </c>
-      <c r="H6">
-        <v>-1.7000000000000001E-2</v>
-      </c>
-      <c r="I6">
-        <f>AVERAGE(C6:F6)</f>
-        <v>3.9750000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C11">
-        <f>12.3 - 7.2</f>
-        <v>5.1000000000000005</v>
+      <c r="F7" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.021</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.017</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/appendix/f1-macro-mean-difference.xlsx
+++ b/appendix/f1-macro-mean-difference.xlsx
@@ -1,37 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritzlaurer/Dropbox/PhD/Papers/nli/snellius/NLI-experiments/appendix/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA74228-5001-6C4F-9D1B-A7FBD306EE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="19220" yWindow="5240" windowWidth="16940" windowHeight="18800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Sample size</t>
+  </si>
+  <si>
+    <t>0 (8 datasets)</t>
+  </si>
+  <si>
+    <t>100 (8 datasets)</t>
+  </si>
+  <si>
+    <t>500 (8 datasets)</t>
+  </si>
+  <si>
+    <t>1000 (8 datasets)</t>
+  </si>
+  <si>
+    <t>2500 (8 datasets)</t>
+  </si>
+  <si>
+    <t>5000 (4 datasets)</t>
+  </si>
+  <si>
+    <t>10000 (3 datasets)</t>
+  </si>
+  <si>
+    <t>mean (100 to 2500)</t>
+  </si>
+  <si>
+    <t>mean all</t>
+  </si>
+  <si>
+    <t>classical-best-embeddings vs. classical-best-tfidf</t>
+  </si>
+  <si>
+    <t>BERT-base vs. classical-best-tfidf</t>
+  </si>
+  <si>
+    <t>BERT-base vs. classical-best-embeddings</t>
+  </si>
+  <si>
+    <t>BERT-base-nli vs. classical-best-tfidf</t>
+  </si>
+  <si>
+    <t>BERT-base-nli vs. classical-best-embeddings</t>
+  </si>
+  <si>
+    <t>BERT-base-nli vs. BERT-base</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +105,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,272 +429,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Sample size</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>0 (8 datasets)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>100 (8 datasets)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>500 (8 datasets)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>1000 (8 datasets)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2500 (8 datasets)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>5000 (4 datasets)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>10000 (3 datasets)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>mean (100 to 2500)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>mean all</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>classical-best-embeddings vs. classical-best-tfidf</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.074</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="C2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D2">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G2">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="I2">
         <v>0.04</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.051</v>
+      <c r="J2">
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>BERT-base vs. classical-best-tfidf</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D3">
         <v>0.11</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.132</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F3">
         <v>0.108</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.153</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.161</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.106</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0.123</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>BERT-base vs. classical-best-embeddings</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.08400000000000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.08699999999999999</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.07199999999999999</v>
+      <c r="C4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D4">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E4">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F4">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="G4">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H4">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="I4">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="J4">
+        <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>BERT-base-nli vs. classical-best-tfidf</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.403</v>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="C5">
         <v>0.182</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.151</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.142</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="F5">
         <v>0.107</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.132</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.144</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.143</v>
+      <c r="G5">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>BERT-base-nli vs. classical-best-embeddings</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.403</v>
-      </c>
-      <c r="C6" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="C6">
         <v>0.123</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.114</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.104</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.08</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="G6">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I6">
         <v>0.105</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.092</v>
+      <c r="J6">
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>BERT-base-nli vs. BERT-base</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.403</v>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="C7">
         <v>0.109</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E7">
         <v>0.01</v>
       </c>
-      <c r="F7" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-0.021</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.017</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="F7">
+        <v>-1E-3</v>
+      </c>
+      <c r="G7">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="H7">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="I7">
         <v>0.04</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.02</v>
       </c>
     </row>
